--- a/Results_Saving/Small_Scale_Network/App_2_mesh.xlsx
+++ b/Results_Saving/Small_Scale_Network/App_2_mesh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NRRG717\Desktop\Service_availability_evaluating_WMN\Results_Saving\Small_Scale_Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Codes\Python_work\2023_Thesis_Codes\Service_availability\Results_Saving\Small_Scale_Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F1B68D-1A84-4714-910C-D794676E0513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36569BB1-D541-477F-8F8C-03765020EAE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="10" windowWidth="16090" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -58,31 +58,23 @@
     <t>{'reroute': [], 'repair': [], 'degradation': []}</t>
   </si>
   <si>
-    <t>Global</t>
+    <t>Local</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13 9</t>
+    <t>1 3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11 7</t>
+    <t>2 4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13 0 5 4 11</t>
+    <t>1 3 5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 1 5 3 12</t>
+    <t>2 4 5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,16 +484,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -546,14 +538,14 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -562,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -579,16 +571,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -600,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -609,7 +601,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
